--- a/文档和流程图/棋盘.xlsx
+++ b/文档和流程图/棋盘.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12420"/>
+    <workbookView windowWidth="16200" windowHeight="10440"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1053,10 +1053,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M14"/>
+  <dimension ref="A1:M23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1088,7 +1088,7 @@
         <v>4</v>
       </c>
       <c r="K1" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="L1" t="s">
         <v>0</v>
@@ -1255,7 +1255,7 @@
         <v>34</v>
       </c>
       <c r="K7" s="5">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="L7" s="3">
         <v>46654</v>
@@ -1391,8 +1391,127 @@
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
     </row>
-    <row r="14" spans="4:4">
-      <c r="D14" s="3"/>
+    <row r="14" spans="1:11">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="1"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="3"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" s="5"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="5"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="5"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" s="5"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">
